--- a/mosip_master/xlsx/ui_spec.xlsx
+++ b/mosip_master/xlsx/ui_spec.xlsx
@@ -266,344 +266,375 @@
   </si>
   <si>
     <t>{
-	"identity": [
-		{
-			"id": "lastName",
-			"description": "Enter Last Name",
-			"labelName": {
-				"fra": "Nom"
+	"identity": {
+		"identity": [
+			{
+				"id": "IDSchemaVersion",
+				"description": "ID Schema Version",
+				"type": "number",
+				"controlType": null,
+				"fieldType": "default",
+				"inputRequired": false,
+				"validators": [],
+				"required": true
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{2,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": true
-		},
-		{
-			"id": "firstName",
-			"description": "Enter First Name",
-			"labelName": {
-				"fra": "Prénom"
+			{
+				"id": "lastName",
+				"description": "Enter Last Name",
+				"labelName": {
+					"fra": "Nom"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{2,50}$).*",
+						"arguments": []
+					}
+				],
+				"required": true,
+				"transliteration": false
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{0,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": false
-		},
-		{
-			"id": "dateOfBirth",
-			"description": "Enter DOB",
-			"labelName": {
-				"fra": "Date de naissance"
+			{
+				"id": "firstName",
+				"description": "Enter First Name",
+				"labelName": {
+					"fra": "Prénom"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{2,50}$).*",
+						"arguments": []
+					}
+				],
+				"required": false,
+				"transliteration": false
 			},
-			"controlType": "date",
-			"inputRequired": true,
-			"validators": [],
-			"required": true
-		},
-		{
-			"id": "gender",
-			"description": "Enter Gender",
-			"labelName": {
-				"fra": "Le genre"
+			{
+				"id": "dateOfBirth",
+				"description": "Enter DOB",
+				"labelName": {
+					"fra": "Date de naissance"
+				},
+				"controlType": "ageDate",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "string",
+				"validators": [],
+				"required": true
 			},
-			"controlType": "button",
-			"inputRequired": true,
-			"validators": [],
-			"required": true
-		},
-		{
-			"id": "residenceStatus",
-			"description": "Residence status",
-			"labelName": {
-				"fra": "Statut de résidence"
+			{
+				"id": "gender",
+				"description": "Enter Gender",
+				"labelName": {
+					"fra": "Le genre"
+				},
+				"controlType": "button",
+				"inputRequired": true,
+				"fieldType": "dynamic",
+				"subType": "gender",
+				"type": "simpleType",
+				"validators": [],
+				"required": true
 			},
-			"controlType": "button",
-			"inputRequired": true,
-			"validators": [],
-			"required": true
-		},
-		{
-			"id": "nationality",
-			"description": "nationality",
-			"labelName": {
-				"fra": "nationalité"
+			{
+				"id": "residenceStatus",
+				"description": "Residence status",
+				"labelName": {
+					"fra": "Statut de résidence"
+				},
+				"controlType": "button",
+				"inputRequired": true,
+				"fieldType": "dynamic",
+				"subType": "residenceStatus",
+				"type": "simpleType",
+				"validators": [],
+				"required": true
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [],
-			"visible": {
-				"engine": "MVEL",
-				"expr": "(identity['residenceStatus'] != null &amp;&amp; identity.get('residenceStatus') == 'NFR')"
-			},
-			"requiredOn": [
-				{
+			{
+				"id": "nationality",
+				"description": "nationality",
+				"labelName": {
+					"fra": "nationalité"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"validators": [],
+				"visible": {
 					"engine": "MVEL",
 					"expr": "(identity['residenceStatus'] != null &amp;&amp; identity.get('residenceStatus') == 'NFR')"
-				}
-			],
-			"required": false
-		},
-		{
-			"id": "addressLine1",
-			"description": "addressLine1",
-			"labelName": {
-				"fra": "Adresse 1"
+				},
+				"requiredOn": [
+					{
+						"engine": "MVEL",
+						"expr": "(identity['residenceStatus'] != null &amp;&amp; identity.get('residenceStatus') == 'NFR')"
+					}
+				],
+				"required": false
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{3,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": true
-		},
-		{
-			"id": "addressLine2",
-			"description": "addressLine2",
-			"labelName": {
-				"fra": "Adresse 2"
+			{
+				"id": "addressLine1",
+				"description": "addressLine1",
+				"labelName": {
+					"fra": "Adresse 1"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{3,50}$).*",
+						"arguments": []
+					}
+				],
+				"required": true,
+				"transliteration": false
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{3,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": false
-		},
-		{
-			"id": "addressLine3",
-			"description": "addressLine3",
-			"labelName": {
-				"fra": "Adresse 3"
+			{
+				"id": "addressLine2",
+				"description": "addressLine2",
+				"labelName": {
+					"fra": "Adresse 2"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{3,50}$).*",
+						"arguments": []
+					}
+				],
+				"required": false,
+				"transliteration": false
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{3,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": false
-		},
-		{
-			"id": "province",
-			"description": "province",
-			"labelName": {
-				"fra": "Province"
+			{
+				"id": "addressLine3",
+				"description": "addressLine3",
+				"labelName": {
+					"fra": "Adresse 3"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{3,50}$).*",
+						"arguments": []
+					}
+				],
+				"required": false,
+				"transliteration": false
 			},
-			"controlType": "dropdown",
-			"inputRequired": true,
-			"locationHierarchy": [
-				"province",
-				"region",
-				"district",
-				"communes",
-				"postalCode"
-			],
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{0,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": true
-		},
-		{
-			"id": "region",
-			"description": "region",
-			"labelName": {
-				"fra": "Région"
+			{
+				"id": "province",
+				"description": "province",
+				"labelName": {
+					"fra": "province"
+				},
+				"controlType": "dropdown",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{0,50}$).*",
+						"arguments": []
+					}
+				],
+				"parentLocCode": "MDG",
+				"locationHierarchyLevel": 1,
+				"required": true
 			},
-			"controlType": "dropdown",
-			"inputRequired": true,
-			"locationHierarchy": [
-				"province",
-				"region",
-				"district",
-				"communes",
-				"postalCode"
-			],
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{0,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": true
-		},
-		{
-			"id": "district",
-			"description": "district",
-			"labelName": {
-				"fra": "district"
+			{
+				"id": "region",
+				"description": "region",
+				"labelName": {
+					"fra": "Région"
+				},
+				"controlType": "dropdown",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{0,50}$).*",
+						"arguments": []
+					}
+				],
+				"locationHierarchyLevel": 2,
+				"required": true
 			},
-			"controlType": "dropdown",
-			"inputRequired": true,
-			"locationHierarchy": [
-				"province",
-				"region",
-				"district",
-				"communes",
-				"postalCode"
-			],
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^(?=.{0,50}$).*",
-					"arguments": []
-				}
-			],
-			"required": true
-		},
-		{
-			"id": "communes",
-			"description": "communes",
-			"labelName": {
-				"fra": "communes"
+			{
+				"id": "district",
+				"description": "district",
+				"labelName": {
+					"fra": "district"
+				},
+				"controlType": "dropdown",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{0,50}$).*",
+						"arguments": []
+					}
+				],
+				"locationHierarchyLevel": 3,
+				"required": true
 			},
-			"controlType": "dropdown",
-			"inputRequired": true,
-			"locationHierarchy": [
-				"province",
-				"region",
-				"district",
-				"communes",
-				"postalCode"
-			],
-			"validators": [],
-			"required": true
-		},
-		{
-			"id": "postalCode",
-			"description": "postalCode",
-			"labelName": {
-				"fra": "code postal"
+			{
+				"id": "communes",
+				"description": "communes",
+				"labelName": {
+					"fra": "communes"
+				},
+				"controlType": "dropdown",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "simpleType",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{0,50}$).*",
+						"arguments": []
+					}
+				],
+				"locationHierarchyLevel": 4,
+				"required": true
 			},
-			"controlType": "dropdown",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^[(?i)A-Z0-9]{5}$|^NA$",
-					"arguments": []
-				}
-			],
-			"required": false
-		},
-		{
-			"id": "phone",
-			"description": "phone",
-			"labelName": {
-				"fra": "Téléphone"
+			{
+				"id": "postalCode",
+				"description": "postalCode",
+				"labelName": {
+					"fra": "code postal"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "string",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^(?=.{0,50}$).*",
+						"arguments": []
+					}
+				],
+				"required": false
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^([6-9]{1})([0-9]{9})$",
-					"arguments": []
-				}
-			],
-			"required": false
-		},
-		{
-			"id": "email",
-			"description": "email",
-			"labelName": {
-				"fra": "Email"
+			{
+				"id": "phone",
+				"description": "phone",
+				"labelName": {
+					"fra": "Phone"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "string",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^[+]*([0-9]{1})([0-9]{9})$",
+						"arguments": []
+					}
+				],
+				"required": false
 			},
-			"controlType": "textbox",
-			"inputRequired": true,
-			"validators": [
-				{
-					"type": "regex",
-					"validator": "^[a-zA-Z-\\+]+(\\.[a-zA-Z]+)*@[a-zA-Z-]+(\\.[a-zA-Z]+)*(\\.[a-zA-Z]{2,})$",
-					"arguments": []
-				}
-			],
-			"required": false
-		},
-		{
-			"id": "proofOfAddress",
-			"description": "proofOfAddress",
-			"labelName": [
-				{
-					"value": "Preuve d'adresse",
-					"language": "fra"
-				}
-			],
-			"controlType": "fileupload",
-			"inputRequired": true,
-			"validators": [],
-			"required": false
-		},
-		{
-			"id": "proofOfIdentity",
-			"description": "proofOfIdentity",
-			"labelName": [
-				{
-					"value": "Preuve d'identité",
-					"language": "fra"
-				}
-			],
-			"controlType": "fileupload",
-			"inputRequired": true,
-			"validators": [],
-			"required": true
-		},
-		{
-			"id": "proofOfRelationship",
-			"description": "proofOfRelationship",
-			"labelName": [
-				{
-					"value": "Preuve de relation",
-					"language": "fra"
-				}
-			],
-			"controlType": "fileupload",
-			"inputRequired": true,
-			"validators": [],
-			"required": false
-		},
-		{
-			"id": "proofOfDateOfBirth",
-			"description": "proofOfDateOfBirth",
-			"labelName": [
-				{
-					"value": "Preuve de date de naissance",
-					"language": "fra"
-				}
-			],
-			"controlType": "fileupload",
-			"inputRequired": true,
-			"validators": [],
-			"required": false
-		}
-	]
+			{
+				"id": "email",
+				"description": "email",
+				"labelName": {
+					"fra": "Email"
+				},
+				"controlType": "textbox",
+				"inputRequired": true,
+				"fieldType": "default",
+				"type": "string",
+				"validators": [
+					{
+						"type": "regex",
+						"validator": "^[\\w-\\+]+(\\.[\\w]+)*@[\\w-]+(\\.[\\w]+)*(\\.[a-zA-Z]{2,})$",
+						"arguments": []
+					}
+				],
+				"required": false
+			},
+			{
+				"id": "proofOfAddress",
+				"description": "proofOfAddress",
+				"labelName": {
+					"fra": "Preuve d'adresse"
+				},
+				"controlType": "fileupload",
+				"inputRequired": true,
+				"validators": [],
+				"subType": "POA",
+				"required": false
+			},
+			{
+				"id": "proofOfIdentity",
+				"description": "proofOfIdentity",
+				"labelName": {
+					"fra": "Preuve d'identité"
+				},
+				"controlType": "fileupload",
+				"inputRequired": true,
+				"validators": [],
+				"subType": "POI",
+				"required": false
+			},
+			{
+				"id": "proofOfRelationship",
+				"description": "proofOfRelationship",
+				"labelName": {
+					"fra": "Preuve de relation"
+				},
+				"controlType": "fileupload",
+				"inputRequired": true,
+				"validators": [],
+				"subType": "POR",
+				"required": false
+			},
+			{
+				"id": "proofOfDateOfBirth",
+				"description": "proofOfDateOfBirth",
+				"labelName": {
+					"fra": "DOB Proof"
+				},
+				"controlType": "fileupload",
+				"inputRequired": true,
+				"validators": [],
+				"subType": "POB",
+				"required": false
+			}
+		],
+		"locationHierarchy": [
+			"province",
+			"region",
+			"district",
+			"communes",
+			"postalCode"
+		]
+	}
 }</t>
   </si>
   <si>
@@ -5837,14 +5868,14 @@
     <xf borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -6295,7 +6326,7 @@
       <c r="F4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="9">
@@ -6366,7 +6397,7 @@
       <c r="I5" s="9">
         <v>0.1</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="8" t="s">
@@ -6378,27 +6409,27 @@
       <c r="M5" s="9">
         <v>110024.0</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="9">
         <v>110024.0</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="R5" s="9"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
     </row>
     <row r="6" ht="34.5" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -6428,7 +6459,7 @@
       <c r="I6" s="9">
         <v>0.1</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="8" t="s">
@@ -6440,27 +6471,27 @@
       <c r="M6" s="9">
         <v>110024.0</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="O6" s="9">
         <v>110024.0</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="P6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="R6" s="9"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -6490,7 +6521,7 @@
       <c r="I7" s="9">
         <v>0.1</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="8" t="s">
@@ -6502,27 +6533,27 @@
       <c r="M7" s="9">
         <v>110024.0</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="O7" s="9">
         <v>110024.0</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="9"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8" ht="40.5" customHeight="1">
       <c r="A8" s="8" t="s">
@@ -6552,7 +6583,7 @@
       <c r="I8" s="9">
         <v>0.1</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K8" s="8" t="s">
@@ -6564,27 +6595,27 @@
       <c r="M8" s="9">
         <v>110024.0</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="O8" s="9">
         <v>110024.0</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>27</v>
       </c>
       <c r="R8" s="9"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
       <c r="A9" s="8" t="s">
@@ -6605,7 +6636,7 @@
       <c r="F9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>57</v>
       </c>
       <c r="H9" s="9">
@@ -6614,7 +6645,7 @@
       <c r="I9" s="9">
         <v>0.1</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K9" s="8" t="s">
@@ -6626,27 +6657,27 @@
       <c r="M9" s="9">
         <v>110024.0</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="O9" s="9">
         <v>110024.0</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="R9" s="15"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="15"/>
@@ -6667,14 +6698,14 @@
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
       <c r="A11" s="17"/>
